--- a/www/ig/fhir/core/ValueSet-fr-core-vs-practitioner-qualification.xlsx
+++ b/www/ig/fhir/core/ValueSet-fr-core-vs-practitioner-qualification.xlsx
@@ -42,7 +42,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -72,7 +72,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-20T09:47:43+01:00</t>
+    <t>2024-02-20T11:21:14+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/ig/fhir/core/ValueSet-fr-core-vs-practitioner-qualification.xlsx
+++ b/www/ig/fhir/core/ValueSet-fr-core-vs-practitioner-qualification.xlsx
@@ -72,7 +72,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-20T11:21:14+01:00</t>
+    <t>2024-02-20T11:36:44+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/ig/fhir/core/ValueSet-fr-core-vs-practitioner-qualification.xlsx
+++ b/www/ig/fhir/core/ValueSet-fr-core-vs-practitioner-qualification.xlsx
@@ -42,7 +42,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-ballot</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -72,7 +72,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-20T11:36:44+01:00</t>
+    <t>2024-03-25T12:26:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/ig/fhir/core/ValueSet-fr-core-vs-practitioner-qualification.xlsx
+++ b/www/ig/fhir/core/ValueSet-fr-core-vs-practitioner-qualification.xlsx
@@ -42,7 +42,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.1</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -72,7 +72,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T11:49:14+02:00</t>
+    <t>2024-09-04T10:06:33+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,7 +87,7 @@
     <t>Interop'Santé (http://interopsante.org/)</t>
   </si>
   <si>
-    <t>InteropSanté (fhir@interopsante.org(WORK))</t>
+    <t>InteropSanté (fhir@interopsante.org(work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
